--- a/df_list_20250207.xlsx
+++ b/df_list_20250207.xlsx
@@ -1269,7 +1269,7 @@
         <v>45694.0</v>
       </c>
       <c r="F4" s="4">
-        <v>45696.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="5">
@@ -1289,7 +1289,7 @@
         <v>45694.0</v>
       </c>
       <c r="F5" s="4">
-        <v>45697.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="6">
@@ -1309,7 +1309,7 @@
         <v>45694.0</v>
       </c>
       <c r="F6" s="4">
-        <v>45698.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="7">
@@ -1329,7 +1329,7 @@
         <v>45694.0</v>
       </c>
       <c r="F7" s="4">
-        <v>45699.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="8">
@@ -1349,7 +1349,7 @@
         <v>45694.0</v>
       </c>
       <c r="F8" s="4">
-        <v>45700.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         <v>45693.0</v>
       </c>
       <c r="F9" s="4">
-        <v>45701.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="10">
@@ -1389,7 +1389,7 @@
         <v>45693.0</v>
       </c>
       <c r="F10" s="4">
-        <v>45702.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="11">
@@ -1409,7 +1409,7 @@
         <v>45693.0</v>
       </c>
       <c r="F11" s="4">
-        <v>45703.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="12">
@@ -1429,7 +1429,7 @@
         <v>45693.0</v>
       </c>
       <c r="F12" s="4">
-        <v>45704.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="13">
@@ -1449,7 +1449,7 @@
         <v>45694.0</v>
       </c>
       <c r="F13" s="4">
-        <v>45705.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="14">
@@ -1469,7 +1469,7 @@
         <v>45694.0</v>
       </c>
       <c r="F14" s="4">
-        <v>45706.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="15">
@@ -1489,7 +1489,7 @@
         <v>45693.0</v>
       </c>
       <c r="F15" s="4">
-        <v>45707.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="16">
@@ -1509,7 +1509,7 @@
         <v>45694.0</v>
       </c>
       <c r="F16" s="4">
-        <v>45708.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="17">
@@ -1529,7 +1529,7 @@
         <v>45694.0</v>
       </c>
       <c r="F17" s="4">
-        <v>45709.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="18">
@@ -1549,7 +1549,7 @@
         <v>45695.0</v>
       </c>
       <c r="F18" s="4">
-        <v>45710.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="19">
@@ -1569,7 +1569,7 @@
         <v>45694.0</v>
       </c>
       <c r="F19" s="4">
-        <v>45711.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="20">
@@ -1589,7 +1589,7 @@
         <v>45693.0</v>
       </c>
       <c r="F20" s="4">
-        <v>45712.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -1609,7 +1609,7 @@
         <v>45695.0</v>
       </c>
       <c r="F21" s="4">
-        <v>45713.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -1629,7 +1629,7 @@
         <v>45693.0</v>
       </c>
       <c r="F22" s="4">
-        <v>45714.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1649,7 +1649,7 @@
         <v>45694.0</v>
       </c>
       <c r="F23" s="4">
-        <v>45715.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1669,7 +1669,7 @@
         <v>45694.0</v>
       </c>
       <c r="F24" s="4">
-        <v>45716.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -1689,7 +1689,7 @@
         <v>45693.0</v>
       </c>
       <c r="F25" s="4">
-        <v>45717.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1709,7 +1709,7 @@
         <v>45695.0</v>
       </c>
       <c r="F26" s="4">
-        <v>45718.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1729,7 +1729,7 @@
         <v>45694.0</v>
       </c>
       <c r="F27" s="4">
-        <v>45719.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1749,7 +1749,7 @@
         <v>45694.0</v>
       </c>
       <c r="F28" s="4">
-        <v>45720.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -1769,7 +1769,7 @@
         <v>45693.0</v>
       </c>
       <c r="F29" s="4">
-        <v>45721.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -1789,7 +1789,7 @@
         <v>45693.0</v>
       </c>
       <c r="F30" s="4">
-        <v>45722.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1809,7 +1809,7 @@
         <v>45695.0</v>
       </c>
       <c r="F31" s="4">
-        <v>45723.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1829,7 +1829,7 @@
         <v>45693.0</v>
       </c>
       <c r="F32" s="4">
-        <v>45724.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -1849,7 +1849,7 @@
         <v>45693.0</v>
       </c>
       <c r="F33" s="4">
-        <v>45725.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1869,7 +1869,7 @@
         <v>45693.0</v>
       </c>
       <c r="F34" s="4">
-        <v>45726.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -1889,7 +1889,7 @@
         <v>45694.0</v>
       </c>
       <c r="F35" s="4">
-        <v>45727.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -1909,7 +1909,7 @@
         <v>45695.0</v>
       </c>
       <c r="F36" s="4">
-        <v>45728.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -1929,7 +1929,7 @@
         <v>45694.0</v>
       </c>
       <c r="F37" s="4">
-        <v>45729.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -1949,7 +1949,7 @@
         <v>45695.0</v>
       </c>
       <c r="F38" s="4">
-        <v>45730.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -1969,7 +1969,7 @@
         <v>45694.0</v>
       </c>
       <c r="F39" s="4">
-        <v>45731.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>45695.0</v>
       </c>
       <c r="F40" s="4">
-        <v>45732.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -2009,7 +2009,7 @@
         <v>45694.0</v>
       </c>
       <c r="F41" s="4">
-        <v>45733.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -2029,7 +2029,7 @@
         <v>45693.0</v>
       </c>
       <c r="F42" s="4">
-        <v>45734.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -2049,7 +2049,7 @@
         <v>45695.0</v>
       </c>
       <c r="F43" s="4">
-        <v>45735.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -2069,7 +2069,7 @@
         <v>45695.0</v>
       </c>
       <c r="F44" s="4">
-        <v>45736.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -2089,7 +2089,7 @@
         <v>45695.0</v>
       </c>
       <c r="F45" s="4">
-        <v>45737.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -2109,7 +2109,7 @@
         <v>45693.0</v>
       </c>
       <c r="F46" s="4">
-        <v>45738.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -2129,7 +2129,7 @@
         <v>45693.0</v>
       </c>
       <c r="F47" s="4">
-        <v>45739.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -2149,7 +2149,7 @@
         <v>45695.0</v>
       </c>
       <c r="F48" s="4">
-        <v>45740.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -2169,7 +2169,7 @@
         <v>45694.0</v>
       </c>
       <c r="F49" s="4">
-        <v>45741.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -2189,7 +2189,7 @@
         <v>45694.0</v>
       </c>
       <c r="F50" s="4">
-        <v>45742.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -2209,7 +2209,7 @@
         <v>45693.0</v>
       </c>
       <c r="F51" s="4">
-        <v>45743.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -2229,7 +2229,7 @@
         <v>45693.0</v>
       </c>
       <c r="F52" s="4">
-        <v>45744.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -2249,7 +2249,7 @@
         <v>45694.0</v>
       </c>
       <c r="F53" s="4">
-        <v>45745.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -2269,7 +2269,7 @@
         <v>45693.0</v>
       </c>
       <c r="F54" s="4">
-        <v>45746.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -2289,7 +2289,7 @@
         <v>45693.0</v>
       </c>
       <c r="F55" s="4">
-        <v>45747.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -2309,7 +2309,7 @@
         <v>45693.0</v>
       </c>
       <c r="F56" s="4">
-        <v>45748.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -2329,7 +2329,7 @@
         <v>45694.0</v>
       </c>
       <c r="F57" s="4">
-        <v>45749.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2349,7 +2349,7 @@
         <v>45695.0</v>
       </c>
       <c r="F58" s="4">
-        <v>45750.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2369,7 +2369,7 @@
         <v>45694.0</v>
       </c>
       <c r="F59" s="4">
-        <v>45751.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -2389,7 +2389,7 @@
         <v>45694.0</v>
       </c>
       <c r="F60" s="4">
-        <v>45752.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -2409,7 +2409,7 @@
         <v>45695.0</v>
       </c>
       <c r="F61" s="4">
-        <v>45753.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -2429,7 +2429,7 @@
         <v>45695.0</v>
       </c>
       <c r="F62" s="4">
-        <v>45754.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -2449,7 +2449,7 @@
         <v>45695.0</v>
       </c>
       <c r="F63" s="4">
-        <v>45755.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -2469,7 +2469,7 @@
         <v>45694.0</v>
       </c>
       <c r="F64" s="4">
-        <v>45756.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -2489,7 +2489,7 @@
         <v>45695.0</v>
       </c>
       <c r="F65" s="4">
-        <v>45757.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -2509,7 +2509,7 @@
         <v>45695.0</v>
       </c>
       <c r="F66" s="4">
-        <v>45758.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -2529,7 +2529,7 @@
         <v>45695.0</v>
       </c>
       <c r="F67" s="4">
-        <v>45759.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -2549,7 +2549,7 @@
         <v>45695.0</v>
       </c>
       <c r="F68" s="4">
-        <v>45760.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -2569,7 +2569,7 @@
         <v>45694.0</v>
       </c>
       <c r="F69" s="4">
-        <v>45761.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -2589,7 +2589,7 @@
         <v>45693.0</v>
       </c>
       <c r="F70" s="4">
-        <v>45762.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -2609,7 +2609,7 @@
         <v>45693.0</v>
       </c>
       <c r="F71" s="4">
-        <v>45763.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -2629,7 +2629,7 @@
         <v>45693.0</v>
       </c>
       <c r="F72" s="4">
-        <v>45764.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -2649,7 +2649,7 @@
         <v>45694.0</v>
       </c>
       <c r="F73" s="4">
-        <v>45765.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -2669,7 +2669,7 @@
         <v>45694.0</v>
       </c>
       <c r="F74" s="4">
-        <v>45766.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>45694.0</v>
       </c>
       <c r="F75" s="4">
-        <v>45767.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -2709,7 +2709,7 @@
         <v>45694.0</v>
       </c>
       <c r="F76" s="4">
-        <v>45768.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -2729,7 +2729,7 @@
         <v>45694.0</v>
       </c>
       <c r="F77" s="4">
-        <v>45769.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -2749,7 +2749,7 @@
         <v>45694.0</v>
       </c>
       <c r="F78" s="4">
-        <v>45770.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -2769,7 +2769,7 @@
         <v>45694.0</v>
       </c>
       <c r="F79" s="4">
-        <v>45771.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -2789,7 +2789,7 @@
         <v>45695.0</v>
       </c>
       <c r="F80" s="4">
-        <v>45772.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
@@ -2809,7 +2809,7 @@
         <v>45694.0</v>
       </c>
       <c r="F81" s="4">
-        <v>45773.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -2829,7 +2829,7 @@
         <v>45694.0</v>
       </c>
       <c r="F82" s="4">
-        <v>45774.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -2849,7 +2849,7 @@
         <v>45694.0</v>
       </c>
       <c r="F83" s="4">
-        <v>45775.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -2869,7 +2869,7 @@
         <v>45695.0</v>
       </c>
       <c r="F84" s="4">
-        <v>45776.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -2889,7 +2889,7 @@
         <v>45693.0</v>
       </c>
       <c r="F85" s="4">
-        <v>45777.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -2909,7 +2909,7 @@
         <v>45693.0</v>
       </c>
       <c r="F86" s="4">
-        <v>45778.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -2929,7 +2929,7 @@
         <v>45693.0</v>
       </c>
       <c r="F87" s="4">
-        <v>45779.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -2949,7 +2949,7 @@
         <v>45694.0</v>
       </c>
       <c r="F88" s="4">
-        <v>45780.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -2969,7 +2969,7 @@
         <v>45694.0</v>
       </c>
       <c r="F89" s="4">
-        <v>45781.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -2989,7 +2989,7 @@
         <v>45695.0</v>
       </c>
       <c r="F90" s="4">
-        <v>45782.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -3009,7 +3009,7 @@
         <v>45694.0</v>
       </c>
       <c r="F91" s="4">
-        <v>45783.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -3029,7 +3029,7 @@
         <v>45694.0</v>
       </c>
       <c r="F92" s="4">
-        <v>45784.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -3049,7 +3049,7 @@
         <v>45694.0</v>
       </c>
       <c r="F93" s="4">
-        <v>45785.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -3069,7 +3069,7 @@
         <v>45693.0</v>
       </c>
       <c r="F94" s="4">
-        <v>45786.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -3089,7 +3089,7 @@
         <v>45694.0</v>
       </c>
       <c r="F95" s="4">
-        <v>45787.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -3109,7 +3109,7 @@
         <v>45695.0</v>
       </c>
       <c r="F96" s="4">
-        <v>45788.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -3129,7 +3129,7 @@
         <v>45693.0</v>
       </c>
       <c r="F97" s="4">
-        <v>45789.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -3149,7 +3149,7 @@
         <v>45694.0</v>
       </c>
       <c r="F98" s="4">
-        <v>45790.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
@@ -3169,7 +3169,7 @@
         <v>45693.0</v>
       </c>
       <c r="F99" s="4">
-        <v>45791.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -3189,7 +3189,7 @@
         <v>45695.0</v>
       </c>
       <c r="F100" s="4">
-        <v>45792.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -3209,7 +3209,7 @@
         <v>45694.0</v>
       </c>
       <c r="F101" s="4">
-        <v>45793.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -3229,7 +3229,7 @@
         <v>45695.0</v>
       </c>
       <c r="F102" s="4">
-        <v>45794.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
@@ -3249,7 +3249,7 @@
         <v>45694.0</v>
       </c>
       <c r="F103" s="4">
-        <v>45795.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -3269,7 +3269,7 @@
         <v>45693.0</v>
       </c>
       <c r="F104" s="4">
-        <v>45796.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
@@ -3289,7 +3289,7 @@
         <v>45694.0</v>
       </c>
       <c r="F105" s="4">
-        <v>45797.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
@@ -3309,7 +3309,7 @@
         <v>45694.0</v>
       </c>
       <c r="F106" s="4">
-        <v>45798.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
@@ -3329,7 +3329,7 @@
         <v>45693.0</v>
       </c>
       <c r="F107" s="4">
-        <v>45799.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
@@ -3349,7 +3349,7 @@
         <v>45695.0</v>
       </c>
       <c r="F108" s="4">
-        <v>45800.58159722222</v>
+        <v>45695.58159722222</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1"/>

--- a/df_list_20250207.xlsx
+++ b/df_list_20250207.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="423">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -898,16 +898,404 @@
   </si>
   <si>
     <t>2인 이상 견적제출 안내 공고(목현 자연재해위험개선지구 정비사업 경관심의..</t>
+  </si>
+  <si>
+    <t>A043</t>
+  </si>
+  <si>
+    <t>경기도_광명시</t>
+  </si>
+  <si>
+    <t>https://www.gm.go.kr/pt/user/nftcBbs/BD_selectNftcBbsList.do?q_nftcBbsCode=1001&amp;q_rowPerPage=90</t>
+  </si>
+  <si>
+    <t>「광명시 생활폐기물자동집하시설 운영 민간위탁 용역」  제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>『도심형 스마트팜 조성사업 재배시설 구매설치』 제안서 평가위원회 개최결과 공개</t>
+  </si>
+  <si>
+    <t>A087</t>
+  </si>
+  <si>
+    <t>강원도_정선군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeongseon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>정선군립병원 신관리모델링 제안공모 심사위원 변경공고</t>
+  </si>
+  <si>
+    <t>A126</t>
+  </si>
+  <si>
+    <t>전라도_전주시</t>
+  </si>
+  <si>
+    <t>https://eminwon.jeonju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;epcCheck=Y&amp;recent_mm=60&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>전주음식 명인·명소 등 심의위원회 위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 공고(임당유적전시관 개관 기념 특별기획전시회 전시설계 및 제작·설치)</t>
+  </si>
+  <si>
+    <t>A164</t>
+  </si>
+  <si>
+    <t>경상도_안동시</t>
+  </si>
+  <si>
+    <t>https://www.andong.go.kr/portal/saeol/gosi/list.do?mId=0401020100</t>
+  </si>
+  <si>
+    <t>「제21회 대한민국청소년박람회 지역특화행사 대행 용역」제안서 평가위원회 결과 공고</t>
+  </si>
+  <si>
+    <t>A171</t>
+  </si>
+  <si>
+    <t>경상도_성주군</t>
+  </si>
+  <si>
+    <t>https://www.sj.go.kr/page.do?mnu_uid=1044&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>2025년 제1회 성주군 건축위원회(구조전문)  심의결과</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>「덕촌리(리도202호선)도로개설공사 외 2개소 실시설계용역 중 덕촌리(리도202호선)도로개설공사(합성형라멘교)」 공법선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>「덕촌리(리도202호선)도로개설공사 외 2개소 실시설계용역 중 송서-덕양간 도로개설공사(개량형PSC거더교)」 공법선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>「2025년 경북도민행복대학 칠곡군 캠퍼스 운영 위탁용역」제안서 제출 안내 재공고(협상에 의한 계약)</t>
+  </si>
+  <si>
+    <t>2025년도 칠곡군 소식지 기획 및 제작 용역 제안공모 제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.chungnam.go.kr/cnportal/province/province/list.do?menuNo=500487&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>2025년 농업 재배 전주기 데이터 수집 용역 제안서 평가위원 모집 공고</t>
+  </si>
+  <si>
+    <t>중랑지하보차도 보수공사 신기술,특허공법(지하차도 신축이음)선정 1차(정량적)평가 결과 공고</t>
+  </si>
+  <si>
+    <t>사업참여신청 공고(노량진배수지(4지) 내부 방식공사 시행에 따른 특정공법 업체 선정)</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+  </si>
+  <si>
+    <t>제6차 부산광역시 환경계획 수립 용역 제안서 평가위원 모집공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=3</t>
+  </si>
+  <si>
+    <t>2025년 교량 등 보수보강공사 공법선정(콘크리트 열화방지 공법) 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>2025년 교량 등 보수보강공사 공법선정(지하차도 신축이음 공법) 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>2025년 교량 등 보수보강공사 공법선정(콘크리트 단면보수 공법) 기술제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=3</t>
+  </si>
+  <si>
+    <t>https://www.ulsan.go.kr/u/rep/transfer/notice/list.ulsan?mId=001004002000000000&amp;curPage=6</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>「2025년 경기도 공공도서관 운영 정성평가 용역」의 제안서 평가위원 후보자 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=9</t>
+  </si>
+  <si>
+    <t>2025년 4급 과장급 승진후보자 역량평가 운영용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>청남대 휴게음식점 운영 식재료 구입 제안서 평가위원 공개 모집 공고</t>
+  </si>
+  <si>
+    <t>2025년 제1차 충청북도 건축물 미술작품 심의결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>「2025년 경상남도 주요정책 종합홍보 용역」제안서 평가위원회 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>A034</t>
+  </si>
+  <si>
+    <t>경기도_고양시</t>
+  </si>
+  <si>
+    <t>https://eminwon.goyang.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;not_ancmt_se_code=01,04,05&amp;title=%EA%B3%A0%EC%8B%9C%EA%B3%B5%EA%B3%A0&amp;initValue=Y&amp;countYn=Y&amp;epcCheck=Y&amp;yyyymmdd=&amp;ofr_pageSize=60</t>
+  </si>
+  <si>
+    <t>고양시 음식문화 특화거리 활성화 방안 연구 용역 제안서 평가위원 모집 공...</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=7</t>
+  </si>
+  <si>
+    <t>2025년도 평가위원 및 심의위원 후보자 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A056</t>
+  </si>
+  <si>
+    <t>경기도_안산시</t>
+  </si>
+  <si>
+    <t>https://www.ansan.go.kr/www/common/bbs/selectPageListBbs.do?bbs_code=WWW13&amp;currentPage=1</t>
+  </si>
+  <si>
+    <t>2025년 안산시마을만들기지원센터 「마을만들기 주민제안 공모사업」 공고</t>
+  </si>
+  <si>
+    <t>2025년 안산시 「마을공동체 주민제안 공모사업(아파트공동체 활성화, 거점공간조성)」 공고문</t>
+  </si>
+  <si>
+    <t>A059</t>
+  </si>
+  <si>
+    <t>경기도_안성시</t>
+  </si>
+  <si>
+    <t>https://www.anseong.go.kr/portal/saeol/gosiList.do?mId=0501040000&amp;token=1717572030185</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 공개모집 공고[안성시 도시개발사업 타당성 검토 및 구역 지정]</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 명단 및 평가결과 공개(2025년 안성시 평생교육통합플랫폼 안성배움e 홈페이지 기능개선 및 유지관리 용역)</t>
+  </si>
+  <si>
+    <t>A067</t>
+  </si>
+  <si>
+    <t>경기도_파주시</t>
+  </si>
+  <si>
+    <t>https://dong.paju.go.kr/dong/user/board/BD_board.list.do?bbsCd=1022&amp;q_ctgCd=4063</t>
+  </si>
+  <si>
+    <t>파주시 모빌리티 개선계획 수립 용역 제안서 평가위원(후보자) 공개모집 공고N</t>
+  </si>
+  <si>
+    <t>포천시 공고 제2025-317호2025년 지역공동체 주민제안 공모사업 공고</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>2025 청주 가드닝 페스티벌 행사 대행업체 선정 제안서 평가위원회 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=4</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=9</t>
+  </si>
+  <si>
+    <t>2025 청주 가드닝 페스티벌 행사 대행업체 선정 제안서 평가위원회 결과...</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>충청도_보은군</t>
+  </si>
+  <si>
+    <t>https://www.boeun.go.kr/www/selectBbsNttList.do?bbsNo=66&amp;key=194&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>충청도_음성군</t>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/www/selectEminwonList.do?key=80&amp;pageUnit=10&amp;ofr_pageSize=10&amp;amp;not_ancmt_se_code=01,02,03,04,05&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>무극 자연재해위험개선지구 정비사업 특정공법(단면보수)선정 기술제안서 제출...</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>충청도_진천군</t>
+  </si>
+  <si>
+    <t>http://eminwon.jincheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05,06</t>
+  </si>
+  <si>
+    <t>「진천종박물관 전시실 개편사업 전시설계 및 전시물 제작·설치」제안서 평가...</t>
+  </si>
+  <si>
+    <t>https://gyeryong.go.kr/kr/html/sub03/030102.html?GotoPage=2</t>
+  </si>
+  <si>
+    <t>https://www.brcn.go.kr/prog/eminwon/kor/BB/sub04_03_01/list.do?pageIndex=1</t>
+  </si>
+  <si>
+    <t>건축위원회 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>충청도_태안군</t>
+  </si>
+  <si>
+    <t>http://eminwon.taean.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>2025년도 주민참여예산제 주민제안사업 공모</t>
+  </si>
+  <si>
+    <t>https://www.gimje.go.kr/board/list.gimje?boardId=BBS_0000044&amp;menuCd=DOM_000000104003000000&amp;contentsSid=196&amp;cpath=&amp;startPage=2</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>전라도_정읍시</t>
+  </si>
+  <si>
+    <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>2025년 상반기 시민참여 정책제안 페스티벌 공모</t>
+  </si>
+  <si>
+    <t>A138</t>
+  </si>
+  <si>
+    <t>전라도_목포시</t>
+  </si>
+  <si>
+    <t>https://www.mokpo.go.kr/www/mokpo_news/notification/public_notice?page=1</t>
+  </si>
+  <si>
+    <t>「2025 목포 유달산 마라톤 대회 대행 용역」제안서 평가결과 ..새로운글</t>
+  </si>
+  <si>
+    <t>A149</t>
+  </si>
+  <si>
+    <t>전라도_영광군</t>
+  </si>
+  <si>
+    <t>https://www.yeonggwang.go.kr/bbs/?b_id=gosigonggo&amp;site=headquarter_new&amp;mn=9059&amp;offset=0</t>
+  </si>
+  <si>
+    <t>영광군 주정차위반 의견진술심의위원회 구성 및 운영 규칙」제정안 입법예고</t>
+  </si>
+  <si>
+    <t>A159</t>
+  </si>
+  <si>
+    <t>경상도_경주시</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>경주 감포항 100년 기념사업 행사 대행용역 제안서 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A172</t>
+  </si>
+  <si>
+    <t>경상도_영덕군</t>
+  </si>
+  <si>
+    <t>https://www.yd.go.kr/?page_id=763&amp;pageid=2</t>
+  </si>
+  <si>
+    <t>영덕군 농촌공간 재구조화 및 재생 기본계획 수립 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>「김해시 찾아가는 3色 예술치료 “엉거주춤 개발연기 울림” 용역」 제안서 평가위원회 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>경상도_고성군</t>
+  </si>
+  <si>
+    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>고성군 고향사랑기금사업 아이디어 제안 공모 선정 결과 공고 의뢰</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -929,6 +1317,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -969,6 +1361,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3352,154 +3753,2966 @@
         <v>45695.58159722222</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F122" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F126" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F127" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F128" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F129" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F130" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F131" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F132" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E133" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F133" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F134" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F135" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E136" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E138" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F138" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E139" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F139" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E140" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F140" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F141" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E142" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F142" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F143" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E144" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F144" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E145" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F145" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E146" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F146" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="E147" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F147" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F148" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E149" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F149" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F150" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E151" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F151" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E152" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F152" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F153" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E154" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E155" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F155" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E156" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F156" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E157" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F157" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E158" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F158" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E159" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F159" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E160" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F160" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E161" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F161" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E162" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F162" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E163" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F163" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E164" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F164" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E165" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F165" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E166" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F166" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E167" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F167" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E168" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F168" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E169" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F169" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E170" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F170" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E171" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F171" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E172" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F172" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E173" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F173" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E174" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F174" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E175" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F175" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E176" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F176" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E177" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F177" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E178" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F178" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E179" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F179" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E180" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F180" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E181" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F181" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E182" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F182" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E183" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F183" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E184" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F184" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E185" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F185" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E186" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F186" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E187" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F187" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E188" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F188" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E189" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F189" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E190" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F190" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E191" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F191" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E192" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F192" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E193" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F193" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E194" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F194" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E195" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F195" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E196" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F196" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E197" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F197" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E198" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F198" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E199" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F199" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E200" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F200" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E201" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F201" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E202" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F202" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E203" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F203" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E204" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E205" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F205" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E206" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F206" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E207" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F207" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E208" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F208" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E209" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F209" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E210" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F210" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E211" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F211" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E212" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F212" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E213" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F213" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E214" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F214" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E215" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F215" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E216" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F216" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E217" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F217" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E218" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F218" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E219" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F219" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E220" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F220" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E221" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F221" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E222" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F222" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E223" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F223" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E224" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F224" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E225" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F225" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E226" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F226" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E227" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F227" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E228" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F228" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E229" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F229" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E230" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F230" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E231" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F231" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E232" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F232" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E233" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F233" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E234" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F234" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E235" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F235" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E236" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F236" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E237" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F237" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E238" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F238" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E239" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F239" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E240" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F240" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E241" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F241" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E242" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F242" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E243" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F243" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E244" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F244" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E245" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F245" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E246" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F246" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E247" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F247" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E248" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F248" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E249" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F249" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E250" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F250" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E251" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F251" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="A252" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E252" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F252" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E253" s="7">
+        <v>45694.0</v>
+      </c>
+      <c r="F253" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="A254" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E254" s="7">
+        <v>45693.0</v>
+      </c>
+      <c r="F254" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="A255" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E255" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F255" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="A256" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E256" s="7">
+        <v>45695.0</v>
+      </c>
+      <c r="F256" s="7">
+        <v>45695.956666666665</v>
+      </c>
+    </row>
     <row r="257" ht="15.75" customHeight="1"/>
     <row r="258" ht="15.75" customHeight="1"/>
     <row r="259" ht="15.75" customHeight="1"/>
@@ -4245,9 +7458,159 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C109"/>
+    <hyperlink r:id="rId2" ref="C110"/>
+    <hyperlink r:id="rId3" ref="C111"/>
+    <hyperlink r:id="rId4" ref="C112"/>
+    <hyperlink r:id="rId5" ref="C113"/>
+    <hyperlink r:id="rId6" ref="C114"/>
+    <hyperlink r:id="rId7" ref="C115"/>
+    <hyperlink r:id="rId8" ref="C116"/>
+    <hyperlink r:id="rId9" ref="C117"/>
+    <hyperlink r:id="rId10" ref="C118"/>
+    <hyperlink r:id="rId11" ref="C119"/>
+    <hyperlink r:id="rId12" ref="C120"/>
+    <hyperlink r:id="rId13" ref="C121"/>
+    <hyperlink r:id="rId14" ref="C122"/>
+    <hyperlink r:id="rId15" location="list/1" ref="C123"/>
+    <hyperlink r:id="rId16" location="list/1" ref="C124"/>
+    <hyperlink r:id="rId17" location="list/1" ref="C125"/>
+    <hyperlink r:id="rId18" location="list/1" ref="C126"/>
+    <hyperlink r:id="rId19" location="list/1" ref="C127"/>
+    <hyperlink r:id="rId20" location="list/1" ref="C128"/>
+    <hyperlink r:id="rId21" location="list/1" ref="C129"/>
+    <hyperlink r:id="rId22" location="list/1" ref="C130"/>
+    <hyperlink r:id="rId23" location="list/1" ref="C131"/>
+    <hyperlink r:id="rId24" location="list/1" ref="C132"/>
+    <hyperlink r:id="rId25" ref="C133"/>
+    <hyperlink r:id="rId26" ref="C134"/>
+    <hyperlink r:id="rId27" ref="C135"/>
+    <hyperlink r:id="rId28" ref="C136"/>
+    <hyperlink r:id="rId29" ref="C137"/>
+    <hyperlink r:id="rId30" ref="C138"/>
+    <hyperlink r:id="rId31" ref="C139"/>
+    <hyperlink r:id="rId32" ref="C140"/>
+    <hyperlink r:id="rId33" ref="C141"/>
+    <hyperlink r:id="rId34" ref="C142"/>
+    <hyperlink r:id="rId35" ref="C143"/>
+    <hyperlink r:id="rId36" location="page=1" ref="C144"/>
+    <hyperlink r:id="rId37" location="page=9" ref="C145"/>
+    <hyperlink r:id="rId38" ref="C146"/>
+    <hyperlink r:id="rId39" ref="C147"/>
+    <hyperlink r:id="rId40" ref="C148"/>
+    <hyperlink r:id="rId41" ref="C149"/>
+    <hyperlink r:id="rId42" ref="C150"/>
+    <hyperlink r:id="rId43" ref="C151"/>
+    <hyperlink r:id="rId44" ref="C152"/>
+    <hyperlink r:id="rId45" ref="C153"/>
+    <hyperlink r:id="rId46" ref="C154"/>
+    <hyperlink r:id="rId47" ref="C155"/>
+    <hyperlink r:id="rId48" ref="C156"/>
+    <hyperlink r:id="rId49" ref="C157"/>
+    <hyperlink r:id="rId50" ref="C158"/>
+    <hyperlink r:id="rId51" ref="C159"/>
+    <hyperlink r:id="rId52" ref="C160"/>
+    <hyperlink r:id="rId53" ref="C161"/>
+    <hyperlink r:id="rId54" ref="C162"/>
+    <hyperlink r:id="rId55" ref="C163"/>
+    <hyperlink r:id="rId56" ref="C164"/>
+    <hyperlink r:id="rId57" ref="C165"/>
+    <hyperlink r:id="rId58" ref="C166"/>
+    <hyperlink r:id="rId59" ref="C167"/>
+    <hyperlink r:id="rId60" ref="C168"/>
+    <hyperlink r:id="rId61" ref="C169"/>
+    <hyperlink r:id="rId62" ref="C170"/>
+    <hyperlink r:id="rId63" ref="C171"/>
+    <hyperlink r:id="rId64" ref="C172"/>
+    <hyperlink r:id="rId65" ref="C173"/>
+    <hyperlink r:id="rId66" ref="C174"/>
+    <hyperlink r:id="rId67" ref="C175"/>
+    <hyperlink r:id="rId68" ref="C176"/>
+    <hyperlink r:id="rId69" ref="C177"/>
+    <hyperlink r:id="rId70" ref="C178"/>
+    <hyperlink r:id="rId71" ref="C179"/>
+    <hyperlink r:id="rId72" ref="C180"/>
+    <hyperlink r:id="rId73" ref="C181"/>
+    <hyperlink r:id="rId74" ref="C182"/>
+    <hyperlink r:id="rId75" ref="C183"/>
+    <hyperlink r:id="rId76" ref="C184"/>
+    <hyperlink r:id="rId77" ref="C185"/>
+    <hyperlink r:id="rId78" ref="C186"/>
+    <hyperlink r:id="rId79" ref="C187"/>
+    <hyperlink r:id="rId80" ref="C188"/>
+    <hyperlink r:id="rId81" ref="C189"/>
+    <hyperlink r:id="rId82" ref="C190"/>
+    <hyperlink r:id="rId83" ref="C191"/>
+    <hyperlink r:id="rId84" ref="C192"/>
+    <hyperlink r:id="rId85" ref="C193"/>
+    <hyperlink r:id="rId86" ref="C194"/>
+    <hyperlink r:id="rId87" ref="C195"/>
+    <hyperlink r:id="rId88" ref="C196"/>
+    <hyperlink r:id="rId89" ref="C197"/>
+    <hyperlink r:id="rId90" ref="C198"/>
+    <hyperlink r:id="rId91" ref="C199"/>
+    <hyperlink r:id="rId92" ref="C200"/>
+    <hyperlink r:id="rId93" ref="C201"/>
+    <hyperlink r:id="rId94" ref="C202"/>
+    <hyperlink r:id="rId95" ref="C203"/>
+    <hyperlink r:id="rId96" ref="C204"/>
+    <hyperlink r:id="rId97" ref="C205"/>
+    <hyperlink r:id="rId98" ref="C206"/>
+    <hyperlink r:id="rId99" ref="C207"/>
+    <hyperlink r:id="rId100" ref="C208"/>
+    <hyperlink r:id="rId101" ref="C209"/>
+    <hyperlink r:id="rId102" ref="C210"/>
+    <hyperlink r:id="rId103" ref="C211"/>
+    <hyperlink r:id="rId104" ref="C212"/>
+    <hyperlink r:id="rId105" ref="C213"/>
+    <hyperlink r:id="rId106" ref="C214"/>
+    <hyperlink r:id="rId107" ref="C215"/>
+    <hyperlink r:id="rId108" ref="C216"/>
+    <hyperlink r:id="rId109" ref="C217"/>
+    <hyperlink r:id="rId110" ref="C218"/>
+    <hyperlink r:id="rId111" ref="C219"/>
+    <hyperlink r:id="rId112" ref="C220"/>
+    <hyperlink r:id="rId113" ref="C221"/>
+    <hyperlink r:id="rId114" ref="C222"/>
+    <hyperlink r:id="rId115" ref="C223"/>
+    <hyperlink r:id="rId116" ref="C224"/>
+    <hyperlink r:id="rId117" ref="C225"/>
+    <hyperlink r:id="rId118" ref="C226"/>
+    <hyperlink r:id="rId119" ref="C227"/>
+    <hyperlink r:id="rId120" ref="C228"/>
+    <hyperlink r:id="rId121" ref="C229"/>
+    <hyperlink r:id="rId122" ref="C230"/>
+    <hyperlink r:id="rId123" ref="C231"/>
+    <hyperlink r:id="rId124" ref="C232"/>
+    <hyperlink r:id="rId125" ref="C233"/>
+    <hyperlink r:id="rId126" ref="C234"/>
+    <hyperlink r:id="rId127" ref="C235"/>
+    <hyperlink r:id="rId128" ref="C236"/>
+    <hyperlink r:id="rId129" ref="C237"/>
+    <hyperlink r:id="rId130" ref="C238"/>
+    <hyperlink r:id="rId131" ref="C239"/>
+    <hyperlink r:id="rId132" ref="C240"/>
+    <hyperlink r:id="rId133" ref="C241"/>
+    <hyperlink r:id="rId134" ref="C242"/>
+    <hyperlink r:id="rId135" ref="C243"/>
+    <hyperlink r:id="rId136" ref="C244"/>
+    <hyperlink r:id="rId137" ref="C245"/>
+    <hyperlink r:id="rId138" ref="C246"/>
+    <hyperlink r:id="rId139" ref="C247"/>
+    <hyperlink r:id="rId140" ref="C248"/>
+    <hyperlink r:id="rId141" ref="C249"/>
+    <hyperlink r:id="rId142" ref="C250"/>
+    <hyperlink r:id="rId143" ref="C251"/>
+    <hyperlink r:id="rId144" ref="C252"/>
+    <hyperlink r:id="rId145" ref="C253"/>
+    <hyperlink r:id="rId146" ref="C254"/>
+    <hyperlink r:id="rId147" ref="C255"/>
+    <hyperlink r:id="rId148" ref="C256"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId149"/>
 </worksheet>
 </file>